--- a/Recommendation tools_project/Results_project.xlsx
+++ b/Recommendation tools_project/Results_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvaradarajan\Documents\Recommendation tools\Data-20190211\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvaradarajan\Documents\GitHub\Recommendation-Tools\Recommendation tools_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CEE438-E48D-403E-AE46-DA023EFB7F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B955EC-6FC9-4D5A-9E12-6F8B9E0F6C51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="4164" xr2:uid="{20EDC73E-7DF3-45F8-ABEC-53974EC1B6D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="4170" xr2:uid="{20EDC73E-7DF3-45F8-ABEC-53974EC1B6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
   <si>
     <t>Results:</t>
   </si>
@@ -360,6 +360,90 @@
   </si>
   <si>
     <t>10 0.06216696 9.920071 0.7282416 1933.290 0.006227758 0.07865169 0.07865169 0.005104989</t>
+  </si>
+  <si>
+    <t>Content based</t>
+  </si>
+  <si>
+    <t>&gt; RSME(CB$prediction, test_content)</t>
+  </si>
+  <si>
+    <t>[1] 1.209051</t>
+  </si>
+  <si>
+    <t>&gt; # Recall/precision Content-based</t>
+  </si>
+  <si>
+    <t>&gt; Classification(CB$prediction, test_content, threshold=3)</t>
+  </si>
+  <si>
+    <t>$Recall</t>
+  </si>
+  <si>
+    <t>[1] 0.3328743</t>
+  </si>
+  <si>
+    <t>$Precision</t>
+  </si>
+  <si>
+    <t>[1] 1</t>
+  </si>
+  <si>
+    <t>$F1</t>
+  </si>
+  <si>
+    <t>[1] 0.4994834</t>
+  </si>
+  <si>
+    <t>&gt; MAE(CB$prediction, test_content)</t>
+  </si>
+  <si>
+    <t>[1] 0.1534255</t>
+  </si>
+  <si>
+    <t>Clusterbased</t>
+  </si>
+  <si>
+    <t>[1] 0.908086</t>
+  </si>
+  <si>
+    <t>[1] 0.8050817</t>
+  </si>
+  <si>
+    <t>[1] 0.8534873</t>
+  </si>
+  <si>
+    <t>&gt; RSME(Prediction_cluster_prediction_matrixtest,test_data1)</t>
+  </si>
+  <si>
+    <t>[1] 0.176269</t>
+  </si>
+  <si>
+    <t>&gt; Classification(Hybrid_prediction, test_content, threshold=6)</t>
+  </si>
+  <si>
+    <t>[1] 0.4327444</t>
+  </si>
+  <si>
+    <t>[1] 0.9962704</t>
+  </si>
+  <si>
+    <t>[1] 0.6033953</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>&gt; RSME(Hybrid_prediction, test_content)</t>
+  </si>
+  <si>
+    <t>[1] 0.8892892</t>
+  </si>
+  <si>
+    <t>&gt; MAE(Hybrid_prediction, test_content)</t>
+  </si>
+  <si>
+    <t>[1] 0.1058868</t>
   </si>
 </sst>
 </file>
@@ -421,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -434,6 +518,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,33 +840,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBF423A-119D-4617-9EB7-A956B6483A83}">
-  <dimension ref="B2:L117"/>
+  <dimension ref="B2:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67:L117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -784,7 +874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -792,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -800,7 +890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -808,17 +898,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -826,7 +916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -834,7 +924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -842,12 +932,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -855,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -863,7 +953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
@@ -871,7 +961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -879,13 +969,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -893,18 +983,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L23" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
@@ -912,7 +1002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -920,22 +1010,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -943,7 +1033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -951,7 +1041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
@@ -959,7 +1049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
@@ -967,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
@@ -975,29 +1065,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="L36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="L39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1005,7 +1095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
@@ -1013,12 +1103,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
@@ -1034,20 +1124,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>34</v>
       </c>
@@ -1055,18 +1145,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="L50" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>36</v>
       </c>
@@ -1074,7 +1164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
@@ -1082,10 +1172,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>43</v>
       </c>
@@ -1093,7 +1183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>44</v>
       </c>
@@ -1101,7 +1191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>45</v>
       </c>
@@ -1109,13 +1199,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>0.1903541</v>
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>46</v>
       </c>
@@ -1123,7 +1213,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>47</v>
       </c>
@@ -1131,18 +1221,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L60" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>48</v>
       </c>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>49</v>
       </c>
@@ -1150,7 +1240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>45</v>
       </c>
@@ -1158,7 +1248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>0.1842799</v>
       </c>
@@ -1166,263 +1256,380 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L67" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
       <c r="L68" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L69" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="L70" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="L71" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="L72" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="L73" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="L74" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="L75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
       <c r="L76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="L77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="L78" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="L80" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="L81" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
       <c r="L82" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="L83" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="L84" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L85" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L86" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L87" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L88" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
       <c r="L89" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L90" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="L91" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
       <c r="L93" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="L94" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L95" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
       <c r="L96" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L97" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="L98" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L99" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L100" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="L101" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L102" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L103" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L104" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
       <c r="L106" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L107" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="L108" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="L109" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L110" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
       <c r="L111" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="L112" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L113" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
       <c r="L114" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L115" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="L116" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L117" s="3" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
